--- a/pub/库兰的刷马经历.xlsx
+++ b/pub/库兰的刷马经历.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\src\ffxiv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\src\ffxiv\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>风马</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -191,6 +183,10 @@
   </si>
   <si>
     <t>刷了⑨匹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有亲友只花了半价2333</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +808,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -907,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -929,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -970,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>36</v>
@@ -985,16 +981,18 @@
       <c r="C10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>38</v>
+      <c r="D10" s="27">
+        <v>5</v>
+      </c>
+      <c r="E10" s="27">
+        <v>97</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
